--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Code\Cricket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA46DE-6AA3-451E-A11B-2DC69B47AD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF125C9-A71F-442B-A659-FB03D51A83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="3510" windowWidth="21600" windowHeight="11775" activeTab="3" xr2:uid="{49066221-4348-492F-BC74-1FBA34EB277F}"/>
+    <workbookView xWindow="3825" yWindow="4425" windowWidth="21600" windowHeight="11775" xr2:uid="{49066221-4348-492F-BC74-1FBA34EB277F}"/>
   </bookViews>
   <sheets>
     <sheet name="PakBat" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3264A0C8-7798-443F-82D6-8EA1F4954D1E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -849,10 +849,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -891,13 +895,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -926,13 +930,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -961,13 +965,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -996,13 +1000,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1031,13 +1035,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1373,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9733CDCE-D3B0-4708-AE97-D952CB19AF0F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K11:K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,10 +1428,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>22</v>
@@ -1459,10 +1463,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -1494,10 +1498,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -1529,10 +1533,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -1564,10 +1568,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>34</v>

--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Code\Cricket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88c4ab88c2105738/Desktop/CricketProject2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF125C9-A71F-442B-A659-FB03D51A83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7E393023-A767-4072-95F9-1627504E99E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3525FD5-E14A-438A-8318-A5E5858A9890}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="4425" windowWidth="21600" windowHeight="11775" xr2:uid="{49066221-4348-492F-BC74-1FBA34EB277F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{49066221-4348-492F-BC74-1FBA34EB277F}"/>
   </bookViews>
   <sheets>
     <sheet name="PakBat" sheetId="1" r:id="rId1"/>
     <sheet name="PakBall" sheetId="2" r:id="rId2"/>
     <sheet name="IndBat" sheetId="3" r:id="rId3"/>
     <sheet name="IndBall" sheetId="4" r:id="rId4"/>
+    <sheet name="Pakistan" sheetId="5" r:id="rId5"/>
+    <sheet name="India" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
   <si>
     <t>First Name</t>
   </si>
@@ -195,6 +197,12 @@
   </si>
   <si>
     <t>Bumrah</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>isbowling</t>
   </si>
 </sst>
 </file>
@@ -230,8 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,22 +559,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3264A0C8-7798-443F-82D6-8EA1F4954D1E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -609,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -632,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -655,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -701,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -724,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -747,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -770,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -793,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -816,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -849,16 +860,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -928,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -963,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1078,21 +1089,21 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1378,20 +1389,20 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1598,6 +1609,896 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D1765-BEC4-491C-A350-3E4886C3BFF5}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CD2A4A-EA44-407E-86BE-840F8C639A15}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
     </row>
